--- a/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST_since_2022/ifo_qoq_matched_error_tables_latest_since_2022.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST_since_2022/ifo_qoq_matched_error_tables_latest_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.08473181334503595</v>
+        <v>0.08102716014508599</v>
       </c>
       <c r="C2">
-        <v>0.1960844183406247</v>
+        <v>0.1849562581409688</v>
       </c>
       <c r="D2">
-        <v>0.05655019848245977</v>
+        <v>0.05080724786734196</v>
       </c>
       <c r="E2">
-        <v>0.2378028563378913</v>
+        <v>0.225404631423895</v>
       </c>
       <c r="F2">
-        <v>0.230582882821925</v>
+        <v>0.2177199557413915</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3514965726350863</v>
+        <v>0.3284388860093228</v>
       </c>
       <c r="C3">
-        <v>0.3678789254152948</v>
+        <v>0.3436510707338022</v>
       </c>
       <c r="D3">
-        <v>0.208520338829992</v>
+        <v>0.1900396029840986</v>
       </c>
       <c r="E3">
-        <v>0.4566402728954073</v>
+        <v>0.4359353197254136</v>
       </c>
       <c r="F3">
-        <v>0.3033996920078001</v>
+        <v>0.2974694575110258</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5359285298637074</v>
+        <v>0.5008085514463395</v>
       </c>
       <c r="C4">
-        <v>0.5359285298637074</v>
+        <v>0.5008085514463395</v>
       </c>
       <c r="D4">
-        <v>0.4782495547733728</v>
+        <v>0.4390583335671841</v>
       </c>
       <c r="E4">
-        <v>0.6915558941787516</v>
+        <v>0.6626147701094386</v>
       </c>
       <c r="F4">
-        <v>0.4565047035322732</v>
+        <v>0.4515933521755904</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.6803125712250263</v>
+        <v>0.6271289531314115</v>
       </c>
       <c r="C5">
-        <v>0.6803125712250263</v>
+        <v>0.6271289531314115</v>
       </c>
       <c r="D5">
-        <v>0.661669842481203</v>
+        <v>0.6001355647093024</v>
       </c>
       <c r="E5">
-        <v>0.8134309082406465</v>
+        <v>0.77468417094278</v>
       </c>
       <c r="F5">
-        <v>0.467684843356973</v>
+        <v>0.4750251754326699</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.6434844528255412</v>
+        <v>0.6196096897755812</v>
       </c>
       <c r="C6">
-        <v>0.6434844528255412</v>
+        <v>0.6196096897755812</v>
       </c>
       <c r="D6">
-        <v>0.5216129528144531</v>
+        <v>0.4847206317237406</v>
       </c>
       <c r="E6">
-        <v>0.722227770730573</v>
+        <v>0.6962188102340676</v>
       </c>
       <c r="F6">
-        <v>0.345672792916247</v>
+        <v>0.3329938595018584</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.5139041731159363</v>
+        <v>0.4878350037768636</v>
       </c>
       <c r="C7">
-        <v>0.5139041731159363</v>
+        <v>0.4878350037768636</v>
       </c>
       <c r="D7">
-        <v>0.3217050974596122</v>
+        <v>0.2918424992789185</v>
       </c>
       <c r="E7">
-        <v>0.5671905301215917</v>
+        <v>0.5402244897067501</v>
       </c>
       <c r="F7">
-        <v>0.2545752307331622</v>
+        <v>0.2446301252661204</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4297470108528131</v>
+        <v>0.408887426949955</v>
       </c>
       <c r="C8">
-        <v>0.4297470108528131</v>
+        <v>0.408887426949955</v>
       </c>
       <c r="D8">
-        <v>0.2392252387417362</v>
+        <v>0.2151763681766355</v>
       </c>
       <c r="E8">
-        <v>0.4891065719674356</v>
+        <v>0.4638710684841592</v>
       </c>
       <c r="F8">
-        <v>0.2496689131167993</v>
+        <v>0.2323485964907919</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4449612585909044</v>
+        <v>0.399669795446622</v>
       </c>
       <c r="C9">
-        <v>0.4449612585909044</v>
+        <v>0.399669795446622</v>
       </c>
       <c r="D9">
-        <v>0.2600009434736725</v>
+        <v>0.2150887163119547</v>
       </c>
       <c r="E9">
-        <v>0.5099028765104905</v>
+        <v>0.4637765801676004</v>
       </c>
       <c r="F9">
-        <v>0.2784116148503658</v>
+        <v>0.2577272300389153</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2415783803833509</v>
+        <v>0.2327354214815493</v>
       </c>
       <c r="C10">
-        <v>0.2415783803833509</v>
+        <v>0.2327354214815493</v>
       </c>
       <c r="D10">
-        <v>0.09048798284017415</v>
+        <v>0.07574075157082642</v>
       </c>
       <c r="E10">
-        <v>0.3008122052712857</v>
+        <v>0.2752103769315874</v>
       </c>
       <c r="F10">
-        <v>0.2534871553808247</v>
+        <v>0.1798956996093793</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
